--- a/qPCR/output/Table1_stat.xlsx
+++ b/qPCR/output/Table1_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majaz\Desktop\backup\GitHub\Bacillus-Pti5\qPCR\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{734405FB-96A5-40EE-AD3C-B3D473AC55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C748E-BAC6-4478-82ED-7AB47ABAD269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9342EFD-0A56-4AF1-9591-3F54BA33D2A9}"/>
   </bookViews>
@@ -332,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +530,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -691,11 +721,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -704,6 +731,14 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -749,43 +784,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -878,10 +877,18 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFFCC66"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCC6600"/>
     </mruColors>
@@ -903,11 +910,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CB7AD0A0-2143-4B61-AE84-FA7C89685770}" name="n"/>
     <tableColumn id="2" xr3:uid="{F9DD315C-363D-4C80-9E4D-47FB1C1F72E0}" name="transcript"/>
-    <tableColumn id="3" xr3:uid="{880A4E09-DC0C-4911-ADEA-FE76154EF8D7}" name="Shapiro_Wilk_BH" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{F49A22CD-6320-4346-A5F1-9BD32CB1FF42}" name="Anderson_Darling_BH" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BE14CA18-D26B-4C48-BF96-64775162745E}" name="Lilliefors_KS_BH" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{F82A7009-BCDA-422A-A172-D7F39497A6B5}" name="Jarque_Bera_BH" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{8A907985-03B1-4B21-B3C8-9B18D9B680F6}" name="DAgostino_Skewness_BH" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{880A4E09-DC0C-4911-ADEA-FE76154EF8D7}" name="Shapiro_Wilk_BH" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F49A22CD-6320-4346-A5F1-9BD32CB1FF42}" name="Anderson_Darling_BH" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{BE14CA18-D26B-4C48-BF96-64775162745E}" name="Lilliefors_KS_BH" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F82A7009-BCDA-422A-A172-D7F39497A6B5}" name="Jarque_Bera_BH" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{8A907985-03B1-4B21-B3C8-9B18D9B680F6}" name="DAgostino_Skewness_BH" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -920,8 +927,8 @@
     <tableColumn id="1" xr3:uid="{2F35E099-1F3D-4AD7-9E4A-F8100F21C822}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{88F4DEE9-27C1-4572-B9B4-94DA06C43AA2}" name="df1"/>
     <tableColumn id="3" xr3:uid="{73867A32-1F2C-41B9-909F-46E81B771B57}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{11213C37-BE3F-4EE9-BEA8-4A21DFB84FE0}" name="statistic" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{95C78E19-66BC-4A78-8EF9-8BC6AAF20A5A}" name="p" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{11213C37-BE3F-4EE9-BEA8-4A21DFB84FE0}" name="statistic" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{95C78E19-66BC-4A78-8EF9-8BC6AAF20A5A}" name="p" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -934,8 +941,8 @@
     <tableColumn id="1" xr3:uid="{2144422C-3831-418F-8116-1B31F2A81DC5}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{091C9F76-982B-4F26-9E68-C8831A7CDE2F}" name="df1"/>
     <tableColumn id="3" xr3:uid="{444DB68A-50FB-47CA-ACE1-E24E3BDE7D6A}" name="df2"/>
-    <tableColumn id="4" xr3:uid="{98AAB355-5282-46B4-9E9A-A38EA5BBF38E}" name="statistic" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{31C04D64-DB2A-4B54-BB10-7A4F46989C3E}" name="p" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{98AAB355-5282-46B4-9E9A-A38EA5BBF38E}" name="statistic" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{31C04D64-DB2A-4B54-BB10-7A4F46989C3E}" name="p" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,8 +953,8 @@
   <autoFilter ref="V4:Z11" xr:uid="{F9F90F01-8BA1-44B3-B2C6-83665D53636B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9EEB7960-EC3B-452C-8371-68E528BDB443}" name="transcript"/>
-    <tableColumn id="2" xr3:uid="{41D42A7F-A11A-4D9B-BE07-2B60A7B3778F}" name="statistic" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{53E79A09-42F0-4346-B567-00AC65AF15F6}" name="p.value" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{41D42A7F-A11A-4D9B-BE07-2B60A7B3778F}" name="statistic" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{53E79A09-42F0-4346-B567-00AC65AF15F6}" name="p.value" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{EBB4A53B-16E1-43E7-81C9-E6ACA1EC6BCF}" name="parameter"/>
     <tableColumn id="5" xr3:uid="{3A3BE6E2-9CF9-4689-82FE-429D5A993FC3}" name="method"/>
   </tableColumns>
@@ -979,7 +986,7 @@
     <tableColumn id="1" xr3:uid="{2F9FFE85-61FB-4578-B89A-6A0FACE995B4}" name=".y."/>
     <tableColumn id="2" xr3:uid="{8C1BB32A-9970-42A8-9242-751CA49A7620}" name="group1"/>
     <tableColumn id="3" xr3:uid="{D6FD70CA-E5AA-42FD-B093-4B04E6EEFF20}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{06E1CA90-E1C9-4F6F-8648-62BFF3CF48B6}" name="effsize" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{06E1CA90-E1C9-4F6F-8648-62BFF3CF48B6}" name="effsize" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{A06B55B8-7357-4903-9503-C5232F54259A}" name="transcript"/>
     <tableColumn id="6" xr3:uid="{65068724-3ACC-41E3-ABD6-7188B35EFDAE}" name="n1"/>
     <tableColumn id="7" xr3:uid="{9A69C154-45B5-40ED-9109-EB0856DD922C}" name="n2"/>
@@ -994,9 +1001,9 @@
   <autoFilter ref="AT4:AW11" xr:uid="{AE4A775A-B541-4B36-B6CF-BB80E0E136DE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F424782-38CC-4DF5-BE68-01EF0FD40416}" name="transcript"/>
-    <tableColumn id="2" xr3:uid="{EDD16EE3-285C-41A2-BD79-01FAB386864E}" name="statistic" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E940BB1B-FC23-46C0-8ABE-FC6545921FCE}" name="p.value" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{591C7F3F-4A1D-49FB-B1EB-3739835B1AD4}" name="permANOVA_BH" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EDD16EE3-285C-41A2-BD79-01FAB386864E}" name="statistic" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E940BB1B-FC23-46C0-8ABE-FC6545921FCE}" name="p.value" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{591C7F3F-4A1D-49FB-B1EB-3739835B1AD4}" name="permANOVA_BH" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1009,7 +1016,7 @@
     <tableColumn id="1" xr3:uid="{0A08E2DA-E54F-42BA-A073-5F8361E56870}" name="transcript"/>
     <tableColumn id="2" xr3:uid="{10C74523-EA13-4659-8E19-356E07FC58E7}" name="group1"/>
     <tableColumn id="3" xr3:uid="{DA211A64-1EB2-4178-89ED-4CD5E4778438}" name="group2"/>
-    <tableColumn id="4" xr3:uid="{8EC2DA49-1008-4844-8B8B-2372B86048A1}" name="p.adj" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{8EC2DA49-1008-4844-8B8B-2372B86048A1}" name="p.adj" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{5BE5543E-AF69-4E25-82A9-48677390E604}" name="p.adj.signif"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1335,24 +1342,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C9D8FC-5AD2-4FE0-82CA-804CDCFCD300}">
   <dimension ref="A1:BC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AK5:AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1372,7 +1379,7 @@
     <col min="37" max="37" width="13.42578125" customWidth="1"/>
     <col min="38" max="38" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1383,103 +1390,103 @@
     <col min="51" max="51" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-    </row>
-    <row r="3" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+    </row>
+    <row r="3" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AT3" s="4" t="s">
+      <c r="AN3" s="4"/>
+      <c r="AT3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BB3" s="5"/>
+      <c r="BB3" s="4"/>
     </row>
     <row r="4" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1488,19 +1495,19 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J4" t="s">
@@ -1512,10 +1519,10 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P4" t="s">
@@ -1581,7 +1588,7 @@
       <c r="AM4" t="s">
         <v>29</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AO4" t="s">
@@ -1617,7 +1624,7 @@
       <c r="BA4" t="s">
         <v>29</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BC4" t="s">
@@ -1631,19 +1638,19 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.10477709</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.13355217959999999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.36795625999999998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.66916940000000003</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.58706219999999998</v>
       </c>
       <c r="J5" t="s">
@@ -1655,10 +1662,10 @@
       <c r="L5">
         <v>14</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>1.0269879</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.42734379900000002</v>
       </c>
       <c r="P5" t="s">
@@ -1670,19 +1677,19 @@
       <c r="R5">
         <v>14</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>1.0269879</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>0.42734379900000002</v>
       </c>
       <c r="V5" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>3.8095349999999999</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>0.43239575000000002</v>
       </c>
       <c r="Y5">
@@ -1694,10 +1701,10 @@
       <c r="AB5" t="s">
         <v>34</v>
       </c>
-      <c r="AC5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AC5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE5">
@@ -1712,19 +1719,19 @@
       <c r="AH5">
         <v>4</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AI5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK5" t="s">
         <v>34</v>
       </c>
-      <c r="AL5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN5" s="2">
+      <c r="AL5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" s="1">
         <v>1.5103399399999999</v>
       </c>
       <c r="AO5" t="s">
@@ -1736,34 +1743,34 @@
       <c r="AQ5">
         <v>4</v>
       </c>
-      <c r="AR5" s="7" t="s">
+      <c r="AR5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AT5" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5" s="1">
         <v>7.7177160000000002</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5" s="1">
         <v>0.1166667</v>
       </c>
       <c r="AY5" t="s">
         <v>9</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB5" s="2">
+      <c r="AZ5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB5" s="1">
         <v>0.51700000000000002</v>
       </c>
-      <c r="BC5" s="6" t="s">
+      <c r="BC5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1774,19 +1781,19 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.8934652000000002E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3.6844410299999998E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>4.0298199999999999E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.46622360000000002</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.1372843</v>
       </c>
       <c r="J6" t="s">
@@ -1798,10 +1805,10 @@
       <c r="L6">
         <v>14</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>1.1624916000000001</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.36875635600000001</v>
       </c>
       <c r="P6" t="s">
@@ -1813,19 +1820,19 @@
       <c r="R6">
         <v>14</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>1.1624916000000001</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>0.36875635600000001</v>
       </c>
       <c r="V6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>5.0727789999999997</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <v>0.27991114</v>
       </c>
       <c r="Y6">
@@ -1837,10 +1844,10 @@
       <c r="AB6" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AC6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE6">
@@ -1861,13 +1868,13 @@
       <c r="AK6" t="s">
         <v>34</v>
       </c>
-      <c r="AL6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN6" s="2">
+      <c r="AL6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN6" s="1">
         <v>5.9888209999999997E-2</v>
       </c>
       <c r="AO6" t="s">
@@ -1885,28 +1892,28 @@
       <c r="AT6" t="s">
         <v>10</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6" s="1">
         <v>9.4167240000000003</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6" s="1">
         <v>1.428571E-2</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6" s="1">
         <v>0.02</v>
       </c>
       <c r="AY6" t="s">
         <v>9</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB6" s="2">
+      <c r="AZ6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB6" s="1">
         <v>1</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BC6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1917,19 +1924,19 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.16384568399999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.2038376039</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.36795625999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.66916940000000003</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.58706219999999998</v>
       </c>
       <c r="J7" t="s">
@@ -1941,10 +1948,10 @@
       <c r="L7">
         <v>14</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.8312811</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.52725663499999997</v>
       </c>
       <c r="P7" t="s">
@@ -1956,19 +1963,19 @@
       <c r="R7">
         <v>14</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>0.8312811</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>0.52725663499999997</v>
       </c>
       <c r="V7" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>6.1509580000000001</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>0.18815473999999999</v>
       </c>
       <c r="Y7">
@@ -1980,10 +1987,10 @@
       <c r="AB7" t="s">
         <v>34</v>
       </c>
-      <c r="AC7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AC7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE7">
@@ -2004,13 +2011,13 @@
       <c r="AK7" t="s">
         <v>34</v>
       </c>
-      <c r="AL7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN7" s="2">
+      <c r="AL7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN7" s="1">
         <v>0.63967552999999999</v>
       </c>
       <c r="AO7" t="s">
@@ -2028,28 +2035,28 @@
       <c r="AT7" t="s">
         <v>11</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7" s="1">
         <v>13.155633999999999</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7" s="1">
         <v>0</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7" s="1">
         <v>0</v>
       </c>
       <c r="AY7" t="s">
         <v>9</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB7" s="2">
+      <c r="AZ7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB7" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="BC7" s="6" t="s">
+      <c r="BC7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2060,19 +2067,19 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.3625429999999999E-3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>4.5781130000000002E-4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>5.5389000000000002E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.46622360000000002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.1372843</v>
       </c>
       <c r="J8" t="s">
@@ -2084,10 +2091,10 @@
       <c r="L8">
         <v>14</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>1.3429092</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.30285552799999998</v>
       </c>
       <c r="P8" t="s">
@@ -2099,19 +2106,19 @@
       <c r="R8">
         <v>14</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>1.3429092</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>0.30285552799999998</v>
       </c>
       <c r="V8" t="s">
         <v>12</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <v>8.3283310000000004</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="1">
         <v>8.0264970000000005E-2</v>
       </c>
       <c r="Y8">
@@ -2123,10 +2130,10 @@
       <c r="AB8" t="s">
         <v>34</v>
       </c>
-      <c r="AC8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AC8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE8">
@@ -2147,13 +2154,13 @@
       <c r="AK8" t="s">
         <v>34</v>
       </c>
-      <c r="AL8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN8" s="2">
+      <c r="AL8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" s="1">
         <v>0.52723770000000003</v>
       </c>
       <c r="AO8" t="s">
@@ -2171,28 +2178,28 @@
       <c r="AT8" t="s">
         <v>12</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8" s="1">
         <v>10.06499</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8" s="1">
         <v>0</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8" s="1">
         <v>0</v>
       </c>
       <c r="AY8" t="s">
         <v>9</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB8" s="2">
+      <c r="AZ8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB8" s="1">
         <v>0.95299999999999996</v>
       </c>
-      <c r="BC8" s="6" t="s">
+      <c r="BC8" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2203,19 +2210,19 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.67396552099999996</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.31807329429999998</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.33931533000000003</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.84029600000000004</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.58706219999999998</v>
       </c>
       <c r="J9" t="s">
@@ -2227,10 +2234,10 @@
       <c r="L9">
         <v>14</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>1.9509034000000001</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.15773427600000001</v>
       </c>
       <c r="P9" t="s">
@@ -2242,19 +2249,19 @@
       <c r="R9">
         <v>14</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>1.9509034000000001</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <v>0.15773427600000001</v>
       </c>
       <c r="V9" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <v>8.4535769999999992</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="1">
         <v>7.6306929999999995E-2</v>
       </c>
       <c r="Y9">
@@ -2266,10 +2273,10 @@
       <c r="AB9" t="s">
         <v>34</v>
       </c>
-      <c r="AC9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AC9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE9">
@@ -2284,19 +2291,19 @@
       <c r="AH9">
         <v>4</v>
       </c>
-      <c r="AI9" s="7" t="s">
+      <c r="AI9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK9" t="s">
         <v>34</v>
       </c>
-      <c r="AL9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN9" s="2">
+      <c r="AL9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN9" s="1">
         <v>-1.9705796200000001</v>
       </c>
       <c r="AO9" t="s">
@@ -2308,34 +2315,34 @@
       <c r="AQ9">
         <v>4</v>
       </c>
-      <c r="AR9" s="7" t="s">
+      <c r="AR9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AT9" t="s">
         <v>13</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AU9" s="1">
         <v>6.6218830000000004</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9" s="1">
         <v>0.18571429</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AW9" s="1">
         <v>0.1857143</v>
       </c>
       <c r="AY9" t="s">
         <v>9</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB9" s="2">
+      <c r="AZ9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB9" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="BC9" s="6" t="s">
+      <c r="BC9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2346,19 +2353,19 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>5.2476959999999996E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.4638476000000001E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1.5247190000000001E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.52814220000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.47823290000000002</v>
       </c>
       <c r="J10" t="s">
@@ -2370,10 +2377,10 @@
       <c r="L10">
         <v>14</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>6.3828522999999997</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>3.8575770000000001E-3</v>
       </c>
       <c r="P10" t="s">
@@ -2385,19 +2392,19 @@
       <c r="R10">
         <v>14</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>6.3828522999999997</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>3.8575770000000001E-3</v>
       </c>
       <c r="V10" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>12.749787</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="1">
         <v>1.2565349999999999E-2</v>
       </c>
       <c r="Y10">
@@ -2409,10 +2416,10 @@
       <c r="AB10" t="s">
         <v>34</v>
       </c>
-      <c r="AC10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AC10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE10">
@@ -2427,19 +2434,19 @@
       <c r="AH10">
         <v>4</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK10" t="s">
         <v>34</v>
       </c>
-      <c r="AL10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN10" s="2">
+      <c r="AL10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN10" s="1">
         <v>-4.8836387099999996</v>
       </c>
       <c r="AO10" t="s">
@@ -2451,34 +2458,34 @@
       <c r="AQ10">
         <v>4</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="AR10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AT10" t="s">
         <v>14</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AU10" s="1">
         <v>16.339238000000002</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AV10" s="1">
         <v>0</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="AW10" s="1">
         <v>0</v>
       </c>
       <c r="AY10" t="s">
         <v>9</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB10" s="2">
+      <c r="AZ10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BC10" s="7" t="s">
+      <c r="BC10" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2489,19 +2496,19 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.3625429999999999E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8.0066649999999996E-4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>5.5389000000000002E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.46622360000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.1372843</v>
       </c>
       <c r="J11" t="s">
@@ -2513,10 +2520,10 @@
       <c r="L11">
         <v>14</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1.1757076</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.36347771200000001</v>
       </c>
       <c r="P11" t="s">
@@ -2528,19 +2535,19 @@
       <c r="R11">
         <v>14</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>1.1757076</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>0.36347771200000001</v>
       </c>
       <c r="V11" t="s">
         <v>15</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="1">
         <v>11.704259</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="1">
         <v>1.9691469999999999E-2</v>
       </c>
       <c r="Y11">
@@ -2552,10 +2559,10 @@
       <c r="AB11" t="s">
         <v>34</v>
       </c>
-      <c r="AC11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AC11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE11">
@@ -2570,19 +2577,19 @@
       <c r="AH11">
         <v>4</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK11" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN11" s="2">
+      <c r="AL11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN11" s="1">
         <v>-4.87628109</v>
       </c>
       <c r="AO11" t="s">
@@ -2594,34 +2601,34 @@
       <c r="AQ11">
         <v>4</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AR11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AT11" t="s">
         <v>15</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11" s="1">
         <v>14.708626000000001</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11" s="1">
         <v>0</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11" s="1">
         <v>0</v>
       </c>
       <c r="AY11" t="s">
         <v>9</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB11" s="2">
+      <c r="AZ11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="BC11" s="7" t="s">
+      <c r="BC11" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2629,10 +2636,10 @@
       <c r="AB12" t="s">
         <v>34</v>
       </c>
-      <c r="AC12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AC12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE12">
@@ -2653,13 +2660,13 @@
       <c r="AK12" t="s">
         <v>34</v>
       </c>
-      <c r="AL12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN12" s="2">
+      <c r="AL12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN12" s="1">
         <v>0.77709905999999995</v>
       </c>
       <c r="AO12" t="s">
@@ -2677,16 +2684,16 @@
       <c r="AY12" t="s">
         <v>9</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB12" s="2">
+      <c r="AZ12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB12" s="1">
         <v>0.80100000000000005</v>
       </c>
-      <c r="BC12" s="6" t="s">
+      <c r="BC12" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2694,10 +2701,10 @@
       <c r="AB13" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AC13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE13">
@@ -2718,13 +2725,13 @@
       <c r="AK13" t="s">
         <v>34</v>
       </c>
-      <c r="AL13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN13" s="2">
+      <c r="AL13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN13" s="1">
         <v>0.62088887999999998</v>
       </c>
       <c r="AO13" t="s">
@@ -2742,16 +2749,16 @@
       <c r="AY13" t="s">
         <v>9</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB13" s="2">
+      <c r="AZ13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB13" s="1">
         <v>0.89</v>
       </c>
-      <c r="BC13" s="6" t="s">
+      <c r="BC13" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2759,10 +2766,10 @@
       <c r="AB14" t="s">
         <v>34</v>
       </c>
-      <c r="AC14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AC14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE14">
@@ -2777,19 +2784,19 @@
       <c r="AH14">
         <v>4</v>
       </c>
-      <c r="AI14" s="7" t="s">
+      <c r="AI14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK14" t="s">
         <v>34</v>
       </c>
-      <c r="AL14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN14" s="2">
+      <c r="AL14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN14" s="1">
         <v>-0.55768145999999996</v>
       </c>
       <c r="AO14" t="s">
@@ -2807,16 +2814,16 @@
       <c r="AY14" t="s">
         <v>9</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB14" s="2">
+      <c r="AZ14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB14" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="BC14" s="6" t="s">
+      <c r="BC14" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2824,10 +2831,10 @@
       <c r="AB15" t="s">
         <v>34</v>
       </c>
-      <c r="AC15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AC15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE15">
@@ -2842,19 +2849,19 @@
       <c r="AH15">
         <v>4</v>
       </c>
-      <c r="AI15" s="7" t="s">
+      <c r="AI15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK15" t="s">
         <v>34</v>
       </c>
-      <c r="AL15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN15" s="2">
+      <c r="AL15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN15" s="1">
         <v>1.59734095</v>
       </c>
       <c r="AO15" t="s">
@@ -2866,22 +2873,22 @@
       <c r="AQ15">
         <v>4</v>
       </c>
-      <c r="AR15" s="7" t="s">
+      <c r="AR15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY15" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB15" s="2">
+      <c r="AZ15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB15" s="1">
         <v>0.48699999999999999</v>
       </c>
-      <c r="BC15" s="6" t="s">
+      <c r="BC15" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2889,10 +2896,10 @@
       <c r="AB16" t="s">
         <v>34</v>
       </c>
-      <c r="AC16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AC16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE16">
@@ -2913,13 +2920,13 @@
       <c r="AK16" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN16" s="2">
+      <c r="AL16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN16" s="1">
         <v>-0.32936514</v>
       </c>
       <c r="AO16" t="s">
@@ -2937,16 +2944,16 @@
       <c r="AY16" t="s">
         <v>10</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB16" s="2">
+      <c r="AZ16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB16" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="BC16" s="6" t="s">
+      <c r="BC16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2954,10 +2961,10 @@
       <c r="AB17" t="s">
         <v>34</v>
       </c>
-      <c r="AC17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="AC17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE17">
@@ -2978,13 +2985,13 @@
       <c r="AK17" t="s">
         <v>34</v>
       </c>
-      <c r="AL17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN17" s="2">
+      <c r="AL17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN17" s="1">
         <v>0.75170429000000005</v>
       </c>
       <c r="AO17" t="s">
@@ -3002,16 +3009,16 @@
       <c r="AY17" t="s">
         <v>10</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB17" s="2">
+      <c r="AZ17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB17" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="BC17" s="6" t="s">
+      <c r="BC17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3019,10 +3026,10 @@
       <c r="AB18" t="s">
         <v>34</v>
       </c>
-      <c r="AC18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AC18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE18">
@@ -3043,13 +3050,13 @@
       <c r="AK18" t="s">
         <v>34</v>
       </c>
-      <c r="AL18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN18" s="2">
+      <c r="AL18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN18" s="1">
         <v>0.64666453999999995</v>
       </c>
       <c r="AO18" t="s">
@@ -3067,16 +3074,16 @@
       <c r="AY18" t="s">
         <v>10</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB18" s="2">
+      <c r="AZ18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB18" s="1">
         <v>0.91200000000000003</v>
       </c>
-      <c r="BC18" s="6" t="s">
+      <c r="BC18" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3084,10 +3091,10 @@
       <c r="AB19" t="s">
         <v>34</v>
       </c>
-      <c r="AC19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AC19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE19">
@@ -3102,19 +3109,19 @@
       <c r="AH19">
         <v>4</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AI19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK19" t="s">
         <v>34</v>
       </c>
-      <c r="AL19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN19" s="2">
+      <c r="AL19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN19" s="1">
         <v>-2.72017167</v>
       </c>
       <c r="AO19" t="s">
@@ -3126,22 +3133,22 @@
       <c r="AQ19">
         <v>4</v>
       </c>
-      <c r="AR19" s="7" t="s">
+      <c r="AR19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY19" t="s">
         <v>10</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB19" s="2">
+      <c r="AZ19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB19" s="1">
         <v>0.111</v>
       </c>
-      <c r="BC19" s="6" t="s">
+      <c r="BC19" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3149,10 +3156,10 @@
       <c r="AB20" t="s">
         <v>34</v>
       </c>
-      <c r="AC20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AC20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE20">
@@ -3167,19 +3174,19 @@
       <c r="AH20">
         <v>4</v>
       </c>
-      <c r="AI20" s="7" t="s">
+      <c r="AI20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK20" t="s">
         <v>34</v>
       </c>
-      <c r="AL20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN20" s="2">
+      <c r="AL20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN20" s="1">
         <v>-2.1730524999999998</v>
       </c>
       <c r="AO20" t="s">
@@ -3191,22 +3198,22 @@
       <c r="AQ20">
         <v>4</v>
       </c>
-      <c r="AR20" s="7" t="s">
+      <c r="AR20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY20" t="s">
         <v>10</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB20" s="2">
+      <c r="AZ20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB20" s="1">
         <v>0.17799999999999999</v>
       </c>
-      <c r="BC20" s="6" t="s">
+      <c r="BC20" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3214,10 +3221,10 @@
       <c r="AB21" t="s">
         <v>34</v>
       </c>
-      <c r="AC21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AC21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE21">
@@ -3232,19 +3239,19 @@
       <c r="AH21">
         <v>4</v>
       </c>
-      <c r="AI21" s="7" t="s">
+      <c r="AI21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK21" t="s">
         <v>34</v>
       </c>
-      <c r="AL21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN21" s="2">
+      <c r="AL21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN21" s="1">
         <v>-3.3449692299999998</v>
       </c>
       <c r="AO21" t="s">
@@ -3256,22 +3263,22 @@
       <c r="AQ21">
         <v>4</v>
       </c>
-      <c r="AR21" s="7" t="s">
+      <c r="AR21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY21" t="s">
         <v>10</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB21" s="2">
+      <c r="AZ21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB21" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="BC21" s="6" t="s">
+      <c r="BC21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3279,10 +3286,10 @@
       <c r="AB22" t="s">
         <v>34</v>
       </c>
-      <c r="AC22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AC22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE22">
@@ -3297,19 +3304,19 @@
       <c r="AH22">
         <v>4</v>
       </c>
-      <c r="AI22" s="7" t="s">
+      <c r="AI22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK22" t="s">
         <v>34</v>
       </c>
-      <c r="AL22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN22" s="2">
+      <c r="AL22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN22" s="1">
         <v>1.4748405</v>
       </c>
       <c r="AO22" t="s">
@@ -3321,22 +3328,22 @@
       <c r="AQ22">
         <v>4</v>
       </c>
-      <c r="AR22" s="7" t="s">
+      <c r="AR22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY22" t="s">
         <v>10</v>
       </c>
-      <c r="AZ22" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB22" s="2">
+      <c r="AZ22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB22" s="1">
         <v>0.36199999999999999</v>
       </c>
-      <c r="BC22" s="6" t="s">
+      <c r="BC22" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3344,10 +3351,10 @@
       <c r="AB23" t="s">
         <v>34</v>
       </c>
-      <c r="AC23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD23" t="s">
+      <c r="AC23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE23">
@@ -3362,19 +3369,19 @@
       <c r="AH23">
         <v>4</v>
       </c>
-      <c r="AI23" s="7" t="s">
+      <c r="AI23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK23" t="s">
         <v>34</v>
       </c>
-      <c r="AL23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN23" s="2">
+      <c r="AL23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN23" s="1">
         <v>1.3781314499999999</v>
       </c>
       <c r="AO23" t="s">
@@ -3386,22 +3393,22 @@
       <c r="AQ23">
         <v>4</v>
       </c>
-      <c r="AR23" s="7" t="s">
+      <c r="AR23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY23" t="s">
         <v>10</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB23" s="2">
+      <c r="AZ23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB23" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="BC23" s="6" t="s">
+      <c r="BC23" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3409,10 +3416,10 @@
       <c r="AB24" t="s">
         <v>34</v>
       </c>
-      <c r="AC24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AC24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD24" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE24">
@@ -3433,13 +3440,13 @@
       <c r="AK24" t="s">
         <v>34</v>
       </c>
-      <c r="AL24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN24" s="2">
+      <c r="AL24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN24" s="1">
         <v>-0.28870477</v>
       </c>
       <c r="AO24" t="s">
@@ -3457,16 +3464,16 @@
       <c r="AY24" t="s">
         <v>10</v>
       </c>
-      <c r="AZ24" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB24" s="2">
+      <c r="AZ24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB24" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="BC24" s="6" t="s">
+      <c r="BC24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3474,10 +3481,10 @@
       <c r="AB25" t="s">
         <v>34</v>
       </c>
-      <c r="AC25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AC25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE25">
@@ -3492,19 +3499,19 @@
       <c r="AH25">
         <v>4</v>
       </c>
-      <c r="AI25" s="7" t="s">
+      <c r="AI25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK25" t="s">
         <v>34</v>
       </c>
-      <c r="AL25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN25" s="2">
+      <c r="AL25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN25" s="1">
         <v>2.3809231999999998</v>
       </c>
       <c r="AO25" t="s">
@@ -3516,22 +3523,22 @@
       <c r="AQ25">
         <v>4</v>
       </c>
-      <c r="AR25" s="7" t="s">
+      <c r="AR25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY25" t="s">
         <v>11</v>
       </c>
-      <c r="AZ25" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB25" s="2">
+      <c r="AZ25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB25" s="1">
         <v>0.28199999999999997</v>
       </c>
-      <c r="BC25" s="6" t="s">
+      <c r="BC25" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3539,10 +3546,10 @@
       <c r="AB26" t="s">
         <v>34</v>
       </c>
-      <c r="AC26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AC26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE26">
@@ -3563,13 +3570,13 @@
       <c r="AK26" t="s">
         <v>34</v>
       </c>
-      <c r="AL26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN26" s="2">
+      <c r="AL26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN26" s="1">
         <v>-0.75101936000000002</v>
       </c>
       <c r="AO26" t="s">
@@ -3587,16 +3594,16 @@
       <c r="AY26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB26" s="2">
+      <c r="AZ26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB26" s="1">
         <v>0.86899999999999999</v>
       </c>
-      <c r="BC26" s="6" t="s">
+      <c r="BC26" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3604,10 +3611,10 @@
       <c r="AB27" t="s">
         <v>34</v>
       </c>
-      <c r="AC27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD27" t="s">
+      <c r="AC27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE27">
@@ -3628,13 +3635,13 @@
       <c r="AK27" t="s">
         <v>34</v>
       </c>
-      <c r="AL27" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN27" s="2">
+      <c r="AL27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN27" s="1">
         <v>0.49177415000000002</v>
       </c>
       <c r="AO27" t="s">
@@ -3652,16 +3659,16 @@
       <c r="AY27" t="s">
         <v>11</v>
       </c>
-      <c r="AZ27" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB27" s="2">
+      <c r="AZ27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB27" s="1">
         <v>0.96099999999999997</v>
       </c>
-      <c r="BC27" s="6" t="s">
+      <c r="BC27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3669,10 +3676,10 @@
       <c r="AB28" t="s">
         <v>34</v>
       </c>
-      <c r="AC28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD28" t="s">
+      <c r="AC28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE28">
@@ -3693,13 +3700,13 @@
       <c r="AK28" t="s">
         <v>34</v>
       </c>
-      <c r="AL28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN28" s="2">
+      <c r="AL28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN28" s="1">
         <v>0.16751727</v>
       </c>
       <c r="AO28" t="s">
@@ -3717,16 +3724,16 @@
       <c r="AY28" t="s">
         <v>11</v>
       </c>
-      <c r="AZ28" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB28" s="2">
+      <c r="AZ28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB28" s="1">
         <v>0.999</v>
       </c>
-      <c r="BC28" s="6" t="s">
+      <c r="BC28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3734,10 +3741,10 @@
       <c r="AB29" t="s">
         <v>34</v>
       </c>
-      <c r="AC29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD29" t="s">
+      <c r="AC29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD29" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE29">
@@ -3752,19 +3759,19 @@
       <c r="AH29">
         <v>4</v>
       </c>
-      <c r="AI29" s="7" t="s">
+      <c r="AI29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK29" t="s">
         <v>34</v>
       </c>
-      <c r="AL29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN29" s="2">
+      <c r="AL29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN29" s="1">
         <v>-12.169780060000001</v>
       </c>
       <c r="AO29" t="s">
@@ -3776,22 +3783,22 @@
       <c r="AQ29">
         <v>4</v>
       </c>
-      <c r="AR29" s="7" t="s">
+      <c r="AR29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY29" t="s">
         <v>11</v>
       </c>
-      <c r="AZ29" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB29" s="2">
+      <c r="AZ29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB29" s="1">
         <v>2E-3</v>
       </c>
-      <c r="BC29" s="7" t="s">
+      <c r="BC29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3799,10 +3806,10 @@
       <c r="AB30" t="s">
         <v>34</v>
       </c>
-      <c r="AC30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD30" t="s">
+      <c r="AC30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD30" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE30">
@@ -3817,19 +3824,19 @@
       <c r="AH30">
         <v>4</v>
       </c>
-      <c r="AI30" s="7" t="s">
+      <c r="AI30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK30" t="s">
         <v>34</v>
       </c>
-      <c r="AL30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN30" s="2">
+      <c r="AL30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN30" s="1">
         <v>-2.7697076599999999</v>
       </c>
       <c r="AO30" t="s">
@@ -3841,22 +3848,22 @@
       <c r="AQ30">
         <v>4</v>
       </c>
-      <c r="AR30" s="7" t="s">
+      <c r="AR30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY30" t="s">
         <v>11</v>
       </c>
-      <c r="AZ30" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB30" s="2">
+      <c r="AZ30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB30" s="1">
         <v>0.109</v>
       </c>
-      <c r="BC30" s="6" t="s">
+      <c r="BC30" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3864,10 +3871,10 @@
       <c r="AB31" t="s">
         <v>34</v>
       </c>
-      <c r="AC31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD31" t="s">
+      <c r="AC31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE31">
@@ -3882,19 +3889,19 @@
       <c r="AH31">
         <v>4</v>
       </c>
-      <c r="AI31" s="7" t="s">
+      <c r="AI31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK31" t="s">
         <v>34</v>
       </c>
-      <c r="AL31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN31" s="2">
+      <c r="AL31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN31" s="1">
         <v>-5.07979</v>
       </c>
       <c r="AO31" t="s">
@@ -3906,22 +3913,22 @@
       <c r="AQ31">
         <v>4</v>
       </c>
-      <c r="AR31" s="7" t="s">
+      <c r="AR31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ31" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB31" s="2">
+      <c r="AZ31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB31" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="BC31" s="7" t="s">
+      <c r="BC31" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3929,10 +3936,10 @@
       <c r="AB32" t="s">
         <v>34</v>
       </c>
-      <c r="AC32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AC32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD32" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE32">
@@ -3947,19 +3954,19 @@
       <c r="AH32">
         <v>4</v>
       </c>
-      <c r="AI32" s="7" t="s">
+      <c r="AI32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK32" t="s">
         <v>34</v>
       </c>
-      <c r="AL32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN32" s="2">
+      <c r="AL32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN32" s="1">
         <v>1.9515304499999999</v>
       </c>
       <c r="AO32" t="s">
@@ -3971,22 +3978,22 @@
       <c r="AQ32">
         <v>4</v>
       </c>
-      <c r="AR32" s="7" t="s">
+      <c r="AR32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY32" t="s">
         <v>11</v>
       </c>
-      <c r="AZ32" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB32" s="2">
+      <c r="AZ32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB32" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="BC32" s="6" t="s">
+      <c r="BC32" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3994,10 +4001,10 @@
       <c r="AB33" t="s">
         <v>34</v>
       </c>
-      <c r="AC33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD33" t="s">
+      <c r="AC33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE33">
@@ -4012,19 +4019,19 @@
       <c r="AH33">
         <v>4</v>
       </c>
-      <c r="AI33" s="7" t="s">
+      <c r="AI33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK33" t="s">
         <v>34</v>
       </c>
-      <c r="AL33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN33" s="2">
+      <c r="AL33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN33" s="1">
         <v>1.9008820099999999</v>
       </c>
       <c r="AO33" t="s">
@@ -4036,22 +4043,22 @@
       <c r="AQ33">
         <v>4</v>
       </c>
-      <c r="AR33" s="7" t="s">
+      <c r="AR33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY33" t="s">
         <v>11</v>
       </c>
-      <c r="AZ33" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB33" s="2">
+      <c r="AZ33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB33" s="1">
         <v>0.189</v>
       </c>
-      <c r="BC33" s="6" t="s">
+      <c r="BC33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4059,10 +4066,10 @@
       <c r="AB34" t="s">
         <v>34</v>
       </c>
-      <c r="AC34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s">
+      <c r="AC34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE34">
@@ -4083,13 +4090,13 @@
       <c r="AK34" t="s">
         <v>34</v>
       </c>
-      <c r="AL34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN34" s="2">
+      <c r="AL34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN34" s="1">
         <v>-0.51788036000000004</v>
       </c>
       <c r="AO34" t="s">
@@ -4107,16 +4114,16 @@
       <c r="AY34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ34" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB34" s="2">
+      <c r="AZ34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB34" s="1">
         <v>0.94</v>
       </c>
-      <c r="BC34" s="6" t="s">
+      <c r="BC34" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4124,10 +4131,10 @@
       <c r="AB35" t="s">
         <v>34</v>
       </c>
-      <c r="AC35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD35" t="s">
+      <c r="AC35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE35">
@@ -4148,13 +4155,13 @@
       <c r="AK35" t="s">
         <v>34</v>
       </c>
-      <c r="AL35" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN35" s="2">
+      <c r="AL35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN35" s="1">
         <v>-1.5187401599999999</v>
       </c>
       <c r="AO35" t="s">
@@ -4166,22 +4173,22 @@
       <c r="AQ35">
         <v>4</v>
       </c>
-      <c r="AR35" s="7" t="s">
+      <c r="AR35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY35" t="s">
         <v>12</v>
       </c>
-      <c r="AZ35" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB35" s="2">
+      <c r="AZ35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB35" s="1">
         <v>0.374</v>
       </c>
-      <c r="BC35" s="6" t="s">
+      <c r="BC35" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4189,10 +4196,10 @@
       <c r="AB36" t="s">
         <v>34</v>
       </c>
-      <c r="AC36" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD36" t="s">
+      <c r="AC36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE36">
@@ -4207,19 +4214,19 @@
       <c r="AH36">
         <v>4</v>
       </c>
-      <c r="AI36" s="7" t="s">
+      <c r="AI36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK36" t="s">
         <v>34</v>
       </c>
-      <c r="AL36" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN36" s="2">
+      <c r="AL36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN36" s="1">
         <v>1.5664627499999999</v>
       </c>
       <c r="AO36" t="s">
@@ -4231,22 +4238,22 @@
       <c r="AQ36">
         <v>4</v>
       </c>
-      <c r="AR36" s="7" t="s">
+      <c r="AR36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY36" t="s">
         <v>12</v>
       </c>
-      <c r="AZ36" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB36" s="2">
+      <c r="AZ36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB36" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="BC36" s="6" t="s">
+      <c r="BC36" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4254,10 +4261,10 @@
       <c r="AB37" t="s">
         <v>34</v>
       </c>
-      <c r="AC37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD37" t="s">
+      <c r="AC37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE37">
@@ -4272,19 +4279,19 @@
       <c r="AH37">
         <v>4</v>
       </c>
-      <c r="AI37" s="7" t="s">
+      <c r="AI37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK37" t="s">
         <v>34</v>
       </c>
-      <c r="AL37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN37" s="2">
+      <c r="AL37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN37" s="1">
         <v>-1.4815687399999999</v>
       </c>
       <c r="AO37" t="s">
@@ -4296,22 +4303,22 @@
       <c r="AQ37">
         <v>4</v>
       </c>
-      <c r="AR37" s="7" t="s">
+      <c r="AR37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY37" t="s">
         <v>12</v>
       </c>
-      <c r="AZ37" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB37" s="2">
+      <c r="AZ37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB37" s="1">
         <v>0.38500000000000001</v>
       </c>
-      <c r="BC37" s="6" t="s">
+      <c r="BC37" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4319,10 +4326,10 @@
       <c r="AB38" t="s">
         <v>34</v>
       </c>
-      <c r="AC38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD38" t="s">
+      <c r="AC38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE38">
@@ -4343,13 +4350,13 @@
       <c r="AK38" t="s">
         <v>34</v>
       </c>
-      <c r="AL38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN38" s="2">
+      <c r="AL38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN38" s="1">
         <v>1.0897328399999999</v>
       </c>
       <c r="AO38" t="s">
@@ -4361,22 +4368,22 @@
       <c r="AQ38">
         <v>4</v>
       </c>
-      <c r="AR38" s="7" t="s">
+      <c r="AR38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY38" t="s">
         <v>12</v>
       </c>
-      <c r="AZ38" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB38" s="2">
+      <c r="AZ38" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB38" s="1">
         <v>0.68100000000000005</v>
       </c>
-      <c r="BC38" s="6" t="s">
+      <c r="BC38" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4384,10 +4391,10 @@
       <c r="AB39" t="s">
         <v>34</v>
       </c>
-      <c r="AC39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD39" t="s">
+      <c r="AC39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD39" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE39">
@@ -4408,13 +4415,13 @@
       <c r="AK39" t="s">
         <v>34</v>
       </c>
-      <c r="AL39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN39" s="2">
+      <c r="AL39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN39" s="1">
         <v>1.91741709</v>
       </c>
       <c r="AO39" t="s">
@@ -4426,22 +4433,22 @@
       <c r="AQ39">
         <v>4</v>
       </c>
-      <c r="AR39" s="7" t="s">
+      <c r="AR39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY39" t="s">
         <v>12</v>
       </c>
-      <c r="AZ39" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA39" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB39" s="2">
+      <c r="AZ39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB39" s="1">
         <v>0.246</v>
       </c>
-      <c r="BC39" s="6" t="s">
+      <c r="BC39" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4449,10 +4456,10 @@
       <c r="AB40" t="s">
         <v>34</v>
       </c>
-      <c r="AC40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD40" t="s">
+      <c r="AC40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD40" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE40">
@@ -4473,13 +4480,13 @@
       <c r="AK40" t="s">
         <v>34</v>
       </c>
-      <c r="AL40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN40" s="2">
+      <c r="AL40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN40" s="1">
         <v>0.34926629999999997</v>
       </c>
       <c r="AO40" t="s">
@@ -4497,16 +4504,16 @@
       <c r="AY40" t="s">
         <v>12</v>
       </c>
-      <c r="AZ40" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA40" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB40" s="2">
+      <c r="AZ40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB40" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="BC40" s="6" t="s">
+      <c r="BC40" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4514,10 +4521,10 @@
       <c r="AB41" t="s">
         <v>34</v>
       </c>
-      <c r="AC41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD41" t="s">
+      <c r="AC41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE41">
@@ -4538,13 +4545,13 @@
       <c r="AK41" t="s">
         <v>34</v>
       </c>
-      <c r="AL41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN41" s="2">
+      <c r="AL41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN41" s="1">
         <v>1.8066163900000001</v>
       </c>
       <c r="AO41" t="s">
@@ -4556,22 +4563,22 @@
       <c r="AQ41">
         <v>4</v>
       </c>
-      <c r="AR41" s="7" t="s">
+      <c r="AR41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY41" t="s">
         <v>12</v>
       </c>
-      <c r="AZ41" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB41" s="2">
+      <c r="AZ41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB41" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="BC41" s="6" t="s">
+      <c r="BC41" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4579,10 +4586,10 @@
       <c r="AB42" t="s">
         <v>34</v>
       </c>
-      <c r="AC42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="AC42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD42" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE42">
@@ -4597,19 +4604,19 @@
       <c r="AH42">
         <v>4</v>
       </c>
-      <c r="AI42" s="7" t="s">
+      <c r="AI42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK42" t="s">
         <v>34</v>
       </c>
-      <c r="AL42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN42" s="2">
+      <c r="AL42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN42" s="1">
         <v>-2.04000257</v>
       </c>
       <c r="AO42" t="s">
@@ -4621,22 +4628,22 @@
       <c r="AQ42">
         <v>4</v>
       </c>
-      <c r="AR42" s="7" t="s">
+      <c r="AR42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY42" t="s">
         <v>12</v>
       </c>
-      <c r="AZ42" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB42" s="2">
+      <c r="AZ42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB42" s="1">
         <v>0.21299999999999999</v>
       </c>
-      <c r="BC42" s="6" t="s">
+      <c r="BC42" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4644,10 +4651,10 @@
       <c r="AB43" t="s">
         <v>34</v>
       </c>
-      <c r="AC43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AC43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE43">
@@ -4668,13 +4675,13 @@
       <c r="AK43" t="s">
         <v>34</v>
       </c>
-      <c r="AL43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN43" s="2">
+      <c r="AL43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN43" s="1">
         <v>-0.71958312000000002</v>
       </c>
       <c r="AO43" t="s">
@@ -4692,16 +4699,16 @@
       <c r="AY43" t="s">
         <v>12</v>
       </c>
-      <c r="AZ43" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA43" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB43" s="2">
+      <c r="AZ43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB43" s="1">
         <v>0.83899999999999997</v>
       </c>
-      <c r="BC43" s="6" t="s">
+      <c r="BC43" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4709,10 +4716,10 @@
       <c r="AB44" t="s">
         <v>34</v>
       </c>
-      <c r="AC44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s">
+      <c r="AC44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE44">
@@ -4727,19 +4734,19 @@
       <c r="AH44">
         <v>4</v>
       </c>
-      <c r="AI44" s="7" t="s">
+      <c r="AI44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK44" t="s">
         <v>34</v>
       </c>
-      <c r="AL44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN44" s="2">
+      <c r="AL44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN44" s="1">
         <v>1.8871510199999999</v>
       </c>
       <c r="AO44" t="s">
@@ -4751,22 +4758,22 @@
       <c r="AQ44">
         <v>4</v>
       </c>
-      <c r="AR44" s="7" t="s">
+      <c r="AR44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY44" t="s">
         <v>12</v>
       </c>
-      <c r="AZ44" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA44" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB44" s="2">
+      <c r="AZ44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB44" s="1">
         <v>0.251</v>
       </c>
-      <c r="BC44" s="6" t="s">
+      <c r="BC44" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4774,10 +4781,10 @@
       <c r="AB45" t="s">
         <v>34</v>
       </c>
-      <c r="AC45" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD45" t="s">
+      <c r="AC45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE45">
@@ -4798,13 +4805,13 @@
       <c r="AK45" t="s">
         <v>34</v>
       </c>
-      <c r="AL45" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN45" s="2">
+      <c r="AL45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN45" s="1">
         <v>-1.0717415800000001</v>
       </c>
       <c r="AO45" t="s">
@@ -4816,22 +4823,22 @@
       <c r="AQ45">
         <v>4</v>
       </c>
-      <c r="AR45" s="7" t="s">
+      <c r="AR45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY45" t="s">
         <v>13</v>
       </c>
-      <c r="AZ45" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB45" s="2">
+      <c r="AZ45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB45" s="1">
         <v>0.61599999999999999</v>
       </c>
-      <c r="BC45" s="6" t="s">
+      <c r="BC45" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4839,10 +4846,10 @@
       <c r="AB46" t="s">
         <v>34</v>
       </c>
-      <c r="AC46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s">
+      <c r="AC46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD46" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE46">
@@ -4863,13 +4870,13 @@
       <c r="AK46" t="s">
         <v>34</v>
       </c>
-      <c r="AL46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN46" s="2">
+      <c r="AL46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN46" s="1">
         <v>-0.72726915999999997</v>
       </c>
       <c r="AO46" t="s">
@@ -4887,16 +4894,16 @@
       <c r="AY46" t="s">
         <v>13</v>
       </c>
-      <c r="AZ46" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB46" s="2">
+      <c r="AZ46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB46" s="1">
         <v>0.86599999999999999</v>
       </c>
-      <c r="BC46" s="6" t="s">
+      <c r="BC46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4904,10 +4911,10 @@
       <c r="AB47" t="s">
         <v>34</v>
       </c>
-      <c r="AC47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD47" t="s">
+      <c r="AC47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD47" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE47">
@@ -4922,19 +4929,19 @@
       <c r="AH47">
         <v>4</v>
       </c>
-      <c r="AI47" s="7" t="s">
+      <c r="AI47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK47" t="s">
         <v>34</v>
       </c>
-      <c r="AL47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN47" s="2">
+      <c r="AL47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN47" s="1">
         <v>-2.6380167299999999</v>
       </c>
       <c r="AO47" t="s">
@@ -4946,22 +4953,22 @@
       <c r="AQ47">
         <v>4</v>
       </c>
-      <c r="AR47" s="7" t="s">
+      <c r="AR47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY47" t="s">
         <v>13</v>
       </c>
-      <c r="AZ47" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA47" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB47" s="2">
+      <c r="AZ47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB47" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="BC47" s="6" t="s">
+      <c r="BC47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4969,10 +4976,10 @@
       <c r="AB48" t="s">
         <v>34</v>
       </c>
-      <c r="AC48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD48" t="s">
+      <c r="AC48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE48">
@@ -4993,13 +5000,13 @@
       <c r="AK48" t="s">
         <v>34</v>
       </c>
-      <c r="AL48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN48" s="2">
+      <c r="AL48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN48" s="1">
         <v>0.33071265</v>
       </c>
       <c r="AO48" t="s">
@@ -5017,16 +5024,16 @@
       <c r="AY48" t="s">
         <v>13</v>
       </c>
-      <c r="AZ48" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA48" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB48" s="2">
+      <c r="AZ48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB48" s="1">
         <v>0.98699999999999999</v>
       </c>
-      <c r="BC48" s="6" t="s">
+      <c r="BC48" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5034,10 +5041,10 @@
       <c r="AB49" t="s">
         <v>34</v>
       </c>
-      <c r="AC49" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD49" t="s">
+      <c r="AC49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD49" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE49">
@@ -5058,13 +5065,13 @@
       <c r="AK49" t="s">
         <v>34</v>
       </c>
-      <c r="AL49" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN49" s="2">
+      <c r="AL49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN49" s="1">
         <v>0.90914039999999996</v>
       </c>
       <c r="AO49" t="s">
@@ -5076,22 +5083,22 @@
       <c r="AQ49">
         <v>4</v>
       </c>
-      <c r="AR49" s="7" t="s">
+      <c r="AR49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY49" t="s">
         <v>13</v>
       </c>
-      <c r="AZ49" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB49" s="2">
+      <c r="AZ49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB49" s="1">
         <v>0.71699999999999997</v>
       </c>
-      <c r="BC49" s="6" t="s">
+      <c r="BC49" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5099,10 +5106,10 @@
       <c r="AB50" t="s">
         <v>34</v>
       </c>
-      <c r="AC50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD50" t="s">
+      <c r="AC50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD50" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE50">
@@ -5123,13 +5130,13 @@
       <c r="AK50" t="s">
         <v>34</v>
       </c>
-      <c r="AL50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN50" s="2">
+      <c r="AL50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN50" s="1">
         <v>0.11112957</v>
       </c>
       <c r="AO50" t="s">
@@ -5147,16 +5154,16 @@
       <c r="AY50" t="s">
         <v>13</v>
       </c>
-      <c r="AZ50" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB50" s="2">
+      <c r="AZ50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB50" s="1">
         <v>1</v>
       </c>
-      <c r="BC50" s="6" t="s">
+      <c r="BC50" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5164,10 +5171,10 @@
       <c r="AB51" t="s">
         <v>34</v>
       </c>
-      <c r="AC51" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD51" t="s">
+      <c r="AC51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE51">
@@ -5182,19 +5189,19 @@
       <c r="AH51">
         <v>4</v>
       </c>
-      <c r="AI51" s="7" t="s">
+      <c r="AI51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK51" t="s">
         <v>34</v>
       </c>
-      <c r="AL51" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN51" s="2">
+      <c r="AL51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN51" s="1">
         <v>1.1029038799999999</v>
       </c>
       <c r="AO51" t="s">
@@ -5206,22 +5213,22 @@
       <c r="AQ51">
         <v>4</v>
       </c>
-      <c r="AR51" s="7" t="s">
+      <c r="AR51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY51" t="s">
         <v>13</v>
       </c>
-      <c r="AZ51" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA51" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB51" s="2">
+      <c r="AZ51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB51" s="1">
         <v>0.57299999999999995</v>
       </c>
-      <c r="BC51" s="6" t="s">
+      <c r="BC51" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5229,10 +5236,10 @@
       <c r="AB52" t="s">
         <v>34</v>
       </c>
-      <c r="AC52" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD52" t="s">
+      <c r="AC52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD52" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE52">
@@ -5247,19 +5254,19 @@
       <c r="AH52">
         <v>4</v>
       </c>
-      <c r="AI52" s="7" t="s">
+      <c r="AI52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK52" t="s">
         <v>34</v>
       </c>
-      <c r="AL52" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN52" s="2">
+      <c r="AL52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN52" s="1">
         <v>-2.2083120799999998</v>
       </c>
       <c r="AO52" t="s">
@@ -5271,22 +5278,22 @@
       <c r="AQ52">
         <v>4</v>
       </c>
-      <c r="AR52" s="7" t="s">
+      <c r="AR52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY52" t="s">
         <v>13</v>
       </c>
-      <c r="AZ52" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA52" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB52" s="2">
+      <c r="AZ52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB52" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="BC52" s="6" t="s">
+      <c r="BC52" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5294,10 +5301,10 @@
       <c r="AB53" t="s">
         <v>34</v>
       </c>
-      <c r="AC53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD53" t="s">
+      <c r="AC53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE53">
@@ -5318,13 +5325,13 @@
       <c r="AK53" t="s">
         <v>34</v>
       </c>
-      <c r="AL53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN53" s="2">
+      <c r="AL53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN53" s="1">
         <v>0.59005757999999997</v>
       </c>
       <c r="AO53" t="s">
@@ -5342,16 +5349,16 @@
       <c r="AY53" t="s">
         <v>13</v>
       </c>
-      <c r="AZ53" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB53" s="2">
+      <c r="AZ53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB53" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="BC53" s="6" t="s">
+      <c r="BC53" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5359,10 +5366,10 @@
       <c r="AB54" t="s">
         <v>34</v>
       </c>
-      <c r="AC54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s">
+      <c r="AC54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD54" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE54">
@@ -5377,19 +5384,19 @@
       <c r="AH54">
         <v>4</v>
       </c>
-      <c r="AI54" s="7" t="s">
+      <c r="AI54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK54" t="s">
         <v>34</v>
       </c>
-      <c r="AL54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN54" s="2">
+      <c r="AL54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN54" s="1">
         <v>1.6790269</v>
       </c>
       <c r="AO54" t="s">
@@ -5401,22 +5408,22 @@
       <c r="AQ54">
         <v>4</v>
       </c>
-      <c r="AR54" s="7" t="s">
+      <c r="AR54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY54" t="s">
         <v>13</v>
       </c>
-      <c r="AZ54" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA54" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB54" s="2">
+      <c r="AZ54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB54" s="1">
         <v>0.27</v>
       </c>
-      <c r="BC54" s="6" t="s">
+      <c r="BC54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5424,10 +5431,10 @@
       <c r="AB55" t="s">
         <v>34</v>
       </c>
-      <c r="AC55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD55" t="s">
+      <c r="AC55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD55" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE55">
@@ -5442,19 +5449,19 @@
       <c r="AH55">
         <v>4</v>
       </c>
-      <c r="AI55" s="7" t="s">
+      <c r="AI55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK55" t="s">
         <v>34</v>
       </c>
-      <c r="AL55" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN55" s="2">
+      <c r="AL55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN55" s="1">
         <v>-8.3644221499999993</v>
       </c>
       <c r="AO55" t="s">
@@ -5466,22 +5473,22 @@
       <c r="AQ55">
         <v>4</v>
       </c>
-      <c r="AR55" s="7" t="s">
+      <c r="AR55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY55" t="s">
         <v>14</v>
       </c>
-      <c r="AZ55" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB55" s="2">
+      <c r="AZ55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB55" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BC55" s="7" t="s">
+      <c r="BC55" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5489,10 +5496,10 @@
       <c r="AB56" t="s">
         <v>34</v>
       </c>
-      <c r="AC56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD56" t="s">
+      <c r="AC56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD56" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE56">
@@ -5513,13 +5520,13 @@
       <c r="AK56" t="s">
         <v>34</v>
       </c>
-      <c r="AL56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN56" s="2">
+      <c r="AL56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN56" s="1">
         <v>-0.94510905999999995</v>
       </c>
       <c r="AO56" t="s">
@@ -5531,22 +5538,22 @@
       <c r="AQ56">
         <v>4</v>
       </c>
-      <c r="AR56" s="7" t="s">
+      <c r="AR56" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY56" t="s">
         <v>14</v>
       </c>
-      <c r="AZ56" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB56" s="2">
+      <c r="AZ56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB56" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="BC56" s="6" t="s">
+      <c r="BC56" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5554,10 +5561,10 @@
       <c r="AB57" t="s">
         <v>34</v>
       </c>
-      <c r="AC57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD57" t="s">
+      <c r="AC57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD57" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE57">
@@ -5572,19 +5579,19 @@
       <c r="AH57">
         <v>4</v>
       </c>
-      <c r="AI57" s="7" t="s">
+      <c r="AI57" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK57" t="s">
         <v>34</v>
       </c>
-      <c r="AL57" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN57" s="2">
+      <c r="AL57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN57" s="1">
         <v>-4.1677370500000004</v>
       </c>
       <c r="AO57" t="s">
@@ -5596,22 +5603,22 @@
       <c r="AQ57">
         <v>4</v>
       </c>
-      <c r="AR57" s="7" t="s">
+      <c r="AR57" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY57" t="s">
         <v>14</v>
       </c>
-      <c r="AZ57" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA57" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB57" s="2">
+      <c r="AZ57" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB57" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BC57" s="7" t="s">
+      <c r="BC57" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5619,10 +5626,10 @@
       <c r="AB58" t="s">
         <v>34</v>
       </c>
-      <c r="AC58" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD58" t="s">
+      <c r="AC58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD58" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE58">
@@ -5637,19 +5644,19 @@
       <c r="AH58">
         <v>4</v>
       </c>
-      <c r="AI58" s="7" t="s">
+      <c r="AI58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK58" t="s">
         <v>34</v>
       </c>
-      <c r="AL58" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN58" s="2">
+      <c r="AL58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN58" s="1">
         <v>-4.8834625000000003</v>
       </c>
       <c r="AO58" t="s">
@@ -5661,22 +5668,22 @@
       <c r="AQ58">
         <v>4</v>
       </c>
-      <c r="AR58" s="7" t="s">
+      <c r="AR58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY58" t="s">
         <v>14</v>
       </c>
-      <c r="AZ58" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA58" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB58" s="2">
+      <c r="AZ58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB58" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="BC58" s="7" t="s">
+      <c r="BC58" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5684,10 +5691,10 @@
       <c r="AB59" t="s">
         <v>34</v>
       </c>
-      <c r="AC59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD59" t="s">
+      <c r="AC59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD59" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE59">
@@ -5702,19 +5709,19 @@
       <c r="AH59">
         <v>4</v>
       </c>
-      <c r="AI59" s="7" t="s">
+      <c r="AI59" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK59" t="s">
         <v>34</v>
       </c>
-      <c r="AL59" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN59" s="2">
+      <c r="AL59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN59" s="1">
         <v>8.2406960999999992</v>
       </c>
       <c r="AO59" t="s">
@@ -5726,22 +5733,22 @@
       <c r="AQ59">
         <v>4</v>
       </c>
-      <c r="AR59" s="7" t="s">
+      <c r="AR59" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY59" t="s">
         <v>14</v>
       </c>
-      <c r="AZ59" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA59" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB59" s="2">
+      <c r="AZ59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB59" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="BC59" s="7" t="s">
+      <c r="BC59" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5749,10 +5756,10 @@
       <c r="AB60" t="s">
         <v>34</v>
       </c>
-      <c r="AC60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD60" t="s">
+      <c r="AC60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD60" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE60">
@@ -5773,13 +5780,13 @@
       <c r="AK60" t="s">
         <v>34</v>
       </c>
-      <c r="AL60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN60" s="2">
+      <c r="AL60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN60" s="1">
         <v>0.45061973999999999</v>
       </c>
       <c r="AO60" t="s">
@@ -5797,16 +5804,16 @@
       <c r="AY60" t="s">
         <v>14</v>
       </c>
-      <c r="AZ60" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB60" s="2">
+      <c r="AZ60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB60" s="1">
         <v>0.96199999999999997</v>
       </c>
-      <c r="BC60" s="6" t="s">
+      <c r="BC60" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5814,10 +5821,10 @@
       <c r="AB61" t="s">
         <v>34</v>
       </c>
-      <c r="AC61" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD61" t="s">
+      <c r="AC61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD61" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE61">
@@ -5832,19 +5839,19 @@
       <c r="AH61">
         <v>4</v>
       </c>
-      <c r="AI61" s="7" t="s">
+      <c r="AI61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK61" t="s">
         <v>34</v>
       </c>
-      <c r="AL61" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN61" s="2">
+      <c r="AL61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN61" s="1">
         <v>6.45140739</v>
       </c>
       <c r="AO61" t="s">
@@ -5856,22 +5863,22 @@
       <c r="AQ61">
         <v>4</v>
       </c>
-      <c r="AR61" s="7" t="s">
+      <c r="AR61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY61" t="s">
         <v>14</v>
       </c>
-      <c r="AZ61" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA61" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB61" s="2">
+      <c r="AZ61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB61" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="BC61" s="7" t="s">
+      <c r="BC61" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5879,10 +5886,10 @@
       <c r="AB62" t="s">
         <v>34</v>
       </c>
-      <c r="AC62" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s">
+      <c r="AC62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD62" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE62">
@@ -5897,19 +5904,19 @@
       <c r="AH62">
         <v>4</v>
       </c>
-      <c r="AI62" s="7" t="s">
+      <c r="AI62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK62" t="s">
         <v>34</v>
       </c>
-      <c r="AL62" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN62" s="2">
+      <c r="AL62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM62" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN62" s="1">
         <v>-4.1081145100000001</v>
       </c>
       <c r="AO62" t="s">
@@ -5921,22 +5928,22 @@
       <c r="AQ62">
         <v>4</v>
       </c>
-      <c r="AR62" s="7" t="s">
+      <c r="AR62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY62" t="s">
         <v>14</v>
       </c>
-      <c r="AZ62" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB62" s="2">
+      <c r="AZ62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA62" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB62" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="BC62" s="7" t="s">
+      <c r="BC62" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5944,10 +5951,10 @@
       <c r="AB63" t="s">
         <v>34</v>
       </c>
-      <c r="AC63" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD63" t="s">
+      <c r="AC63" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD63" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE63">
@@ -5962,19 +5969,19 @@
       <c r="AH63">
         <v>4</v>
       </c>
-      <c r="AI63" s="7" t="s">
+      <c r="AI63" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK63" t="s">
         <v>34</v>
       </c>
-      <c r="AL63" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM63" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN63" s="2">
+      <c r="AL63" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM63" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN63" s="1">
         <v>-4.4577340999999997</v>
       </c>
       <c r="AO63" t="s">
@@ -5986,22 +5993,22 @@
       <c r="AQ63">
         <v>4</v>
       </c>
-      <c r="AR63" s="7" t="s">
+      <c r="AR63" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY63" t="s">
         <v>14</v>
       </c>
-      <c r="AZ63" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA63" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB63" s="2">
+      <c r="AZ63" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA63" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB63" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="BC63" s="7" t="s">
+      <c r="BC63" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6009,10 +6016,10 @@
       <c r="AB64" t="s">
         <v>34</v>
       </c>
-      <c r="AC64" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s">
+      <c r="AC64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE64">
@@ -6027,19 +6034,19 @@
       <c r="AH64">
         <v>4</v>
       </c>
-      <c r="AI64" s="7" t="s">
+      <c r="AI64" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK64" t="s">
         <v>34</v>
       </c>
-      <c r="AL64" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN64" s="2">
+      <c r="AL64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN64" s="1">
         <v>3.22419615</v>
       </c>
       <c r="AO64" t="s">
@@ -6051,22 +6058,22 @@
       <c r="AQ64">
         <v>4</v>
       </c>
-      <c r="AR64" s="7" t="s">
+      <c r="AR64" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY64" t="s">
         <v>14</v>
       </c>
-      <c r="AZ64" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA64" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB64" s="2">
+      <c r="AZ64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA64" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB64" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="BC64" s="6" t="s">
+      <c r="BC64" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6074,10 +6081,10 @@
       <c r="AB65" t="s">
         <v>34</v>
       </c>
-      <c r="AC65" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s">
+      <c r="AC65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD65" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AE65">
@@ -6092,19 +6099,19 @@
       <c r="AH65">
         <v>4</v>
       </c>
-      <c r="AI65" s="7" t="s">
+      <c r="AI65" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK65" t="s">
         <v>34</v>
       </c>
-      <c r="AL65" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN65" s="2">
+      <c r="AL65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN65" s="1">
         <v>-3.25162576</v>
       </c>
       <c r="AO65" t="s">
@@ -6116,22 +6123,22 @@
       <c r="AQ65">
         <v>4</v>
       </c>
-      <c r="AR65" s="7" t="s">
+      <c r="AR65" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY65" t="s">
         <v>15</v>
       </c>
-      <c r="AZ65" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA65" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB65" s="2">
+      <c r="AZ65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB65" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="BC65" s="6" t="s">
+      <c r="BC65" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6139,10 +6146,10 @@
       <c r="AB66" t="s">
         <v>34</v>
       </c>
-      <c r="AC66" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s">
+      <c r="AC66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE66">
@@ -6157,19 +6164,19 @@
       <c r="AH66">
         <v>4</v>
       </c>
-      <c r="AI66" s="7" t="s">
+      <c r="AI66" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK66" t="s">
         <v>34</v>
       </c>
-      <c r="AL66" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN66" s="2">
+      <c r="AL66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM66" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN66" s="1">
         <v>-3.0700226900000001</v>
       </c>
       <c r="AO66" t="s">
@@ -6181,22 +6188,22 @@
       <c r="AQ66">
         <v>4</v>
       </c>
-      <c r="AR66" s="7" t="s">
+      <c r="AR66" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY66" t="s">
         <v>15</v>
       </c>
-      <c r="AZ66" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA66" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB66" s="2">
+      <c r="AZ66" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA66" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB66" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="BC66" s="6" t="s">
+      <c r="BC66" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6204,10 +6211,10 @@
       <c r="AB67" t="s">
         <v>34</v>
       </c>
-      <c r="AC67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD67" t="s">
+      <c r="AC67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD67" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE67">
@@ -6222,19 +6229,19 @@
       <c r="AH67">
         <v>4</v>
       </c>
-      <c r="AI67" s="7" t="s">
+      <c r="AI67" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK67" t="s">
         <v>34</v>
       </c>
-      <c r="AL67" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM67" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN67" s="2">
+      <c r="AL67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN67" s="1">
         <v>-5.6857589199999996</v>
       </c>
       <c r="AO67" t="s">
@@ -6246,22 +6253,22 @@
       <c r="AQ67">
         <v>4</v>
       </c>
-      <c r="AR67" s="7" t="s">
+      <c r="AR67" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY67" t="s">
         <v>15</v>
       </c>
-      <c r="AZ67" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA67" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB67" s="2">
+      <c r="AZ67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB67" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="BC67" s="7" t="s">
+      <c r="BC67" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6269,10 +6276,10 @@
       <c r="AB68" t="s">
         <v>34</v>
       </c>
-      <c r="AC68" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD68" t="s">
+      <c r="AC68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD68" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE68">
@@ -6287,19 +6294,19 @@
       <c r="AH68">
         <v>4</v>
       </c>
-      <c r="AI68" s="7" t="s">
+      <c r="AI68" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK68" t="s">
         <v>34</v>
       </c>
-      <c r="AL68" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM68" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN68" s="2">
+      <c r="AL68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM68" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN68" s="1">
         <v>-4.1679486199999998</v>
       </c>
       <c r="AO68" t="s">
@@ -6311,22 +6318,22 @@
       <c r="AQ68">
         <v>4</v>
       </c>
-      <c r="AR68" s="7" t="s">
+      <c r="AR68" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY68" t="s">
         <v>15</v>
       </c>
-      <c r="AZ68" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA68" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB68" s="2">
+      <c r="AZ68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA68" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB68" s="1">
         <v>0.03</v>
       </c>
-      <c r="BC68" s="7" t="s">
+      <c r="BC68" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6334,10 +6341,10 @@
       <c r="AB69" t="s">
         <v>34</v>
       </c>
-      <c r="AC69" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD69" t="s">
+      <c r="AC69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD69" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AE69">
@@ -6352,19 +6359,19 @@
       <c r="AH69">
         <v>4</v>
       </c>
-      <c r="AI69" s="7" t="s">
+      <c r="AI69" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK69" t="s">
         <v>34</v>
       </c>
-      <c r="AL69" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN69" s="2">
+      <c r="AL69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM69" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN69" s="1">
         <v>3.0873318599999999</v>
       </c>
       <c r="AO69" t="s">
@@ -6376,22 +6383,22 @@
       <c r="AQ69">
         <v>4</v>
       </c>
-      <c r="AR69" s="7" t="s">
+      <c r="AR69" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY69" t="s">
         <v>15</v>
       </c>
-      <c r="AZ69" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA69" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB69" s="2">
+      <c r="AZ69" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA69" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB69" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="BC69" s="6" t="s">
+      <c r="BC69" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6399,10 +6406,10 @@
       <c r="AB70" t="s">
         <v>34</v>
       </c>
-      <c r="AC70" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD70" t="s">
+      <c r="AC70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD70" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE70">
@@ -6423,13 +6430,13 @@
       <c r="AK70" t="s">
         <v>34</v>
       </c>
-      <c r="AL70" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN70" s="2">
+      <c r="AL70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN70" s="1">
         <v>1.4156460500000001</v>
       </c>
       <c r="AO70" t="s">
@@ -6441,22 +6448,22 @@
       <c r="AQ70">
         <v>4</v>
       </c>
-      <c r="AR70" s="7" t="s">
+      <c r="AR70" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY70" t="s">
         <v>15</v>
       </c>
-      <c r="AZ70" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA70" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB70" s="2">
+      <c r="AZ70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB70" s="1">
         <v>0.41</v>
       </c>
-      <c r="BC70" s="6" t="s">
+      <c r="BC70" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6464,10 +6471,10 @@
       <c r="AB71" t="s">
         <v>34</v>
       </c>
-      <c r="AC71" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD71" t="s">
+      <c r="AC71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD71" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE71">
@@ -6482,19 +6489,19 @@
       <c r="AH71">
         <v>4</v>
       </c>
-      <c r="AI71" s="7" t="s">
+      <c r="AI71" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK71" t="s">
         <v>34</v>
       </c>
-      <c r="AL71" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN71" s="2">
+      <c r="AL71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN71" s="1">
         <v>2.89333617</v>
       </c>
       <c r="AO71" t="s">
@@ -6506,22 +6513,22 @@
       <c r="AQ71">
         <v>4</v>
       </c>
-      <c r="AR71" s="7" t="s">
+      <c r="AR71" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY71" t="s">
         <v>15</v>
       </c>
-      <c r="AZ71" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA71" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB71" s="2">
+      <c r="AZ71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB71" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="BC71" s="6" t="s">
+      <c r="BC71" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6529,10 +6536,10 @@
       <c r="AB72" t="s">
         <v>34</v>
       </c>
-      <c r="AC72" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD72" t="s">
+      <c r="AC72" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD72" s="11" t="s">
         <v>40</v>
       </c>
       <c r="AE72">
@@ -6547,19 +6554,19 @@
       <c r="AH72">
         <v>4</v>
       </c>
-      <c r="AI72" s="7" t="s">
+      <c r="AI72" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK72" t="s">
         <v>34</v>
       </c>
-      <c r="AL72" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN72" s="2">
+      <c r="AL72" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN72" s="1">
         <v>-5.1122986900000003</v>
       </c>
       <c r="AO72" t="s">
@@ -6571,22 +6578,22 @@
       <c r="AQ72">
         <v>4</v>
       </c>
-      <c r="AR72" s="7" t="s">
+      <c r="AR72" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY72" t="s">
         <v>15</v>
       </c>
-      <c r="AZ72" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA72" t="s">
-        <v>40</v>
-      </c>
-      <c r="BB72" s="2">
+      <c r="AZ72" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB72" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="BC72" s="7" t="s">
+      <c r="BC72" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6594,10 +6601,10 @@
       <c r="AB73" t="s">
         <v>34</v>
       </c>
-      <c r="AC73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD73" t="s">
+      <c r="AC73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE73">
@@ -6612,19 +6619,19 @@
       <c r="AH73">
         <v>4</v>
       </c>
-      <c r="AI73" s="7" t="s">
+      <c r="AI73" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK73" t="s">
         <v>34</v>
       </c>
-      <c r="AL73" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN73" s="2">
+      <c r="AL73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN73" s="1">
         <v>-1.96573183</v>
       </c>
       <c r="AO73" t="s">
@@ -6636,22 +6643,22 @@
       <c r="AQ73">
         <v>4</v>
       </c>
-      <c r="AR73" s="7" t="s">
+      <c r="AR73" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY73" t="s">
         <v>15</v>
       </c>
-      <c r="AZ73" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA73" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB73" s="2">
+      <c r="AZ73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA73" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB73" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="BC73" s="6" t="s">
+      <c r="BC73" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6659,10 +6666,10 @@
       <c r="AB74" t="s">
         <v>34</v>
       </c>
-      <c r="AC74" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD74" t="s">
+      <c r="AC74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AE74">
@@ -6677,19 +6684,19 @@
       <c r="AH74">
         <v>4</v>
       </c>
-      <c r="AI74" s="7" t="s">
+      <c r="AI74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AK74" t="s">
         <v>34</v>
       </c>
-      <c r="AL74" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN74" s="2">
+      <c r="AL74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM74" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN74" s="1">
         <v>4.42041153</v>
       </c>
       <c r="AO74" t="s">
@@ -6701,22 +6708,22 @@
       <c r="AQ74">
         <v>4</v>
       </c>
-      <c r="AR74" s="7" t="s">
+      <c r="AR74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AY74" t="s">
         <v>15</v>
       </c>
-      <c r="AZ74" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA74" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB74" s="2">
+      <c r="AZ74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA74" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB74" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="BC74" s="7" t="s">
+      <c r="BC74" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6725,13 +6732,35 @@
     <mergeCell ref="A1:BC1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:H11">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV5:AW11">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="N5:N11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T11">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:X11">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1:AE1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576">
@@ -6746,30 +6775,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE1:AE1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF0070C0"/>
-        <color theme="0"/>
-        <color rgb="FFC00000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X11">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T11">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="AV5:AW11">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
